--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_50.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1366396761133603</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D'], ['D', 'G', 'E:min']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'A/3', 'E/5'], ['G', 'C', 'A:min']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (56.381952, 61.374243)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.404, 17.043), (88.497, 92.37)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1287758346581876</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A']]</t>
+          <t>[['A', 'A', 'A'], ['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.148231, 28.899196)]</t>
+          <t>[['Eb', 'Eb', 'Eb'], ['Ab', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(76.300702, 81.607119)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:28.583470', '0:01:33.575761'), ('0:01:25.437167', '0:01:31.834264')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:17.940000', '0:00:18.860000'), ('0:03:55.660000', '0:03:59.340000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>jaah_62</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_84</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04507839721254355</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>[['C:7', 'F:maj7', 'F:maj7'], ['G:min7', 'C:7', 'F:maj7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
+          <t>[['Ab:7', 'Db:maj7', 'Db:maj7'], ['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(49.28, 53.94)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:04.760000', '0:00:07.920000'), ('0:00:10.280000', '0:00:12.630000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:23.980000', '0:00:29.460000'), ('0:00:22.170000', '0:00:27.620000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1983870967741935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(22.04, 28.66)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.42, 14.22)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.175886524822695</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:min', 'F#:min', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1441176470588235</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.839297, 24.623828)]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.850816, 8.133356)]</t>
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2120901639344262</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(215.66, 222.96), (0.82, 8.8)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3012820512820513</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
-        </is>
+          <t>isophonics_45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2575757575757576</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['C', 'F:maj', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.867, 26.66)]</t>
+          <t>[['B', 'E', 'E:7/3', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(55.68, 66.1)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:10.675000', '0:00:20.379000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:17.443474', '0:00:24.856984')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09197651663405088</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.04, 22.58)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(66.92, 70.3)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.28, 8.7)]</t>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['G:maj', 'C:maj', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'Eb:7']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.92, 11.96), (14.66, 19.0)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602), (27.910918, 40.797993)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4555555555555556</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.302038, 6.740158)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3625</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384803921568628</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.440395, 7.659045)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.67, 26.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
